--- a/QMS Form s/F-QMS-RM-02 A (1).xlsx
+++ b/QMS Form s/F-QMS-RM-02 A (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai.abdelrahman\Downloads\Quality\QMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\QMS Form s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DB1BCF-0426-4403-BDB4-B646AE1D1E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA84DD62-E8F2-400F-8B57-45E3648AA19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52321F37-5D85-4C9D-B0D1-0643406FF59B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{52321F37-5D85-4C9D-B0D1-0643406FF59B}"/>
   </bookViews>
   <sheets>
     <sheet name="F-QMS-RM-02A" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Interested Parties Register</t>
   </si>
@@ -70,9 +70,6 @@
  Date of Needs</t>
   </si>
   <si>
-    <t>….....................................</t>
-  </si>
-  <si>
     <t>IP-SW-01</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
   </si>
   <si>
     <t>Internal - Management</t>
-  </si>
-  <si>
-    <t>Needs clear, documented processes (SOPs SW-G1 to SW-S2) to ensure consistent software delivery, effective resource allocation, and compliance with business objectives. Requires performance metrics and risk oversight.</t>
   </si>
   <si>
     <t>Monthly management review meetings; QMS audit results.</t>
@@ -175,17 +169,22 @@
     <t>Per Release</t>
   </si>
   <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Needs clear, documented processes (SOPs) to ensure consistent software delivery, effective resource allocation, and compliance with business objectives. Requires performance metrics and risk oversight.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Needs timely, reliable software services as per agreed SLAs </t>
+      <t>Needs timely, reliable software services as per agreed S</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(SOP SW-S1)</t>
+      <t>LAs (SOP S-SW-SC-5)</t>
     </r>
     <r>
       <rPr>
@@ -194,21 +193,45 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">. Expects clear communication, involvement in UAT (SOP SW-G1), and a formal process for submitting and tracking requests (features, changes, bugs).	</t>
+      <t xml:space="preserve">. Expects clear communication, involvement in UAT (SOP S-SW-SD-1), and a formal process for submitting and tracking requests (features, changes, bugs).	</t>
+    </r>
+  </si>
+  <si>
+    <t>Business Analyst,Software Supervisor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Needs comprehensive test plans, stable testing environments, clear bug reporting and tracking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflows (SOP S-SW-BF-4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, and early involvement in the development cycle (SOP S-SW-SD-1).</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Needs clear requirements, defined coding standards, functional test environments, and efficient deployment processes </t>
+      <t>Needs clear requirements, defined coding st</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(SOP SW-G1, SW-S2) </t>
+      <t xml:space="preserve">andards, functional test environments, and efficient deployment processes (SOP S-SW-SD-1, S-SW-FR-2) </t>
     </r>
     <r>
       <rPr>
@@ -221,63 +244,19 @@
     </r>
   </si>
   <si>
+    <t>Needs thorough impact analysis, risk assessment, and clear rollback plans for changes (SOP S-SW-CR-3) to make informed approval decisions and safeguard system stability.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Needs comprehensive test plans, stable testing environments, clear bug reporting and tracking workflows </t>
+      <t>Needs detailed deployment instructions, maintenance windows, and rollback procedu</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(SOP SW-G4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, and early involvement in the development cycle (SOP SW-G1).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Needs thorough impact analysis, risk assessment, and clear rollback plans for changes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(SOP SW-G3, SW-S2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to make informed approval decisions and safeguard system stability.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Needs detailed deployment instructions, maintenance windows, and rollback procedures </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(SOP SW-S2) </t>
+      <t xml:space="preserve">res (SOP S-SW-SD1) </t>
     </r>
     <r>
       <rPr>
@@ -294,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,7 +316,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -503,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -522,39 +500,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,6 +508,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,22 +930,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4B6EC1-FC89-4C8F-8597-DD2C7203C6D6}">
   <dimension ref="A1:U553"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:H13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="10" max="10" width="14.296875" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="63.75" customHeight="1">
+    <row r="1" spans="1:21" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -987,23 +968,23 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="27">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:21" ht="27" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1012,7 +993,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="18.75">
+    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1035,15 +1016,15 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="18">
+    <row r="4" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
+      <c r="B4" s="11" t="s">
+        <v>42</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1062,7 +1043,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="19.5" thickBot="1">
+    <row r="5" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1085,35 +1066,35 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="79.5" customHeight="1">
+    <row r="6" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="20" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1122,35 +1103,35 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="139.5" customHeight="1">
+    <row r="7" spans="1:21" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
-      <c r="N7" s="15"/>
+      <c r="N7" s="21"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1159,16 +1140,16 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="140.25" customHeight="1">
+    <row r="8" spans="1:21" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
@@ -1177,17 +1158,17 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
-      <c r="N8" s="15"/>
+      <c r="N8" s="21"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1196,35 +1177,35 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="126.75" customHeight="1">
+    <row r="9" spans="1:21" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
-      <c r="N9" s="15"/>
+      <c r="N9" s="21"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1233,16 +1214,16 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="152.25" customHeight="1">
+    <row r="10" spans="1:21" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14" t="s">
@@ -1251,17 +1232,17 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
-      <c r="N10" s="15"/>
+      <c r="N10" s="21"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1270,35 +1251,35 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="120.75" customHeight="1">
+    <row r="11" spans="1:21" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
-        <v>47</v>
+      <c r="F11" s="22" t="s">
+        <v>48</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="N11" s="15"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1307,35 +1288,35 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" ht="96" customHeight="1">
+    <row r="12" spans="1:21" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
-      <c r="N12" s="15"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1344,21 +1325,21 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="35.1" customHeight="1">
+    <row r="13" spans="1:21" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="19"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1367,21 +1348,21 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="35.1" customHeight="1" thickBot="1">
+    <row r="14" spans="1:21" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="20"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1390,21 +1371,21 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="35.1" customHeight="1">
+    <row r="15" spans="1:21" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1413,21 +1394,21 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="35.1" customHeight="1">
+    <row r="16" spans="1:21" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1436,21 +1417,21 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="35.1" customHeight="1">
+    <row r="17" spans="1:21" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1459,21 +1440,21 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" ht="35.1" customHeight="1">
+    <row r="18" spans="1:21" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -1482,21 +1463,21 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" ht="35.1" customHeight="1">
+    <row r="19" spans="1:21" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1505,15 +1486,15 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" ht="18">
+    <row r="20" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1528,15 +1509,15 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" ht="18">
+    <row r="21" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1551,15 +1532,15 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" ht="18">
+    <row r="22" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1574,15 +1555,15 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" ht="18">
+    <row r="23" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1597,15 +1578,15 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21" ht="18">
+    <row r="24" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1620,15 +1601,15 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" ht="18">
+    <row r="25" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1643,15 +1624,15 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21" ht="18">
+    <row r="26" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1666,15 +1647,15 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:21" ht="18">
+    <row r="27" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1689,15 +1670,15 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21" ht="18">
+    <row r="28" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1712,15 +1693,15 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:21" ht="18">
+    <row r="29" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1735,15 +1716,15 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21" ht="18">
+    <row r="30" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1758,15 +1739,15 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" ht="18">
+    <row r="31" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1781,15 +1762,15 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21" ht="18">
+    <row r="32" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1804,15 +1785,15 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" ht="18">
+    <row r="33" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1827,15 +1808,15 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" ht="18">
+    <row r="34" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1850,15 +1831,15 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" ht="18">
+    <row r="35" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1873,7 +1854,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" ht="18">
+    <row r="36" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1896,7 +1877,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" ht="18">
+    <row r="37" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1919,7 +1900,7 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" ht="18">
+    <row r="38" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1942,7 +1923,7 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:21" ht="18">
+    <row r="39" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1965,7 +1946,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:21" ht="18">
+    <row r="40" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1988,7 +1969,7 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21" ht="18">
+    <row r="41" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2011,7 +1992,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" ht="18">
+    <row r="42" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2034,7 +2015,7 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" ht="18">
+    <row r="43" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2057,7 +2038,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21" ht="18">
+    <row r="44" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2080,7 +2061,7 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:21" ht="18">
+    <row r="45" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2103,7 +2084,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21" ht="18">
+    <row r="46" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2126,7 +2107,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21" ht="18">
+    <row r="47" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2149,7 +2130,7 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:21" ht="18">
+    <row r="48" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2172,7 +2153,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="1:21" ht="18">
+    <row r="49" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2195,7 +2176,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="1:21" ht="18">
+    <row r="50" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2218,7 +2199,7 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" spans="1:21" ht="18">
+    <row r="51" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2241,7 +2222,7 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" spans="1:21" ht="18">
+    <row r="52" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2264,7 +2245,7 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="1:21" ht="18">
+    <row r="53" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2287,7 +2268,7 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" spans="1:21" ht="18">
+    <row r="54" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2310,7 +2291,7 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" spans="1:21" ht="18">
+    <row r="55" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2333,7 +2314,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56" spans="1:21" ht="18">
+    <row r="56" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2356,7 +2337,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" spans="1:21" ht="18">
+    <row r="57" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2379,7 +2360,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="1:21" ht="18">
+    <row r="58" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2402,7 +2383,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="1:21" ht="18">
+    <row r="59" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2425,7 +2406,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="1:21" ht="18">
+    <row r="60" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2448,7 +2429,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" spans="1:21" ht="18">
+    <row r="61" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2471,7 +2452,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" spans="1:21" ht="18">
+    <row r="62" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2494,7 +2475,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" spans="1:21" ht="18">
+    <row r="63" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2517,7 +2498,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="1:21" ht="18">
+    <row r="64" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2540,7 +2521,7 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" spans="1:21" ht="18">
+    <row r="65" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2563,7 +2544,7 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" spans="1:21" ht="18">
+    <row r="66" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2586,7 +2567,7 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" spans="1:21" ht="18">
+    <row r="67" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2609,7 +2590,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" spans="1:21" ht="18">
+    <row r="68" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2632,7 +2613,7 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" spans="1:21" ht="18">
+    <row r="69" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2655,7 +2636,7 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" spans="1:21" ht="18">
+    <row r="70" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2678,7 +2659,7 @@
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
     </row>
-    <row r="71" spans="1:21" ht="18">
+    <row r="71" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2701,7 +2682,7 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="1:21" ht="18">
+    <row r="72" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2724,7 +2705,7 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="1:21" ht="18">
+    <row r="73" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2747,7 +2728,7 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="1:21" ht="18">
+    <row r="74" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2770,7 +2751,7 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="1:21" ht="18">
+    <row r="75" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2793,7 +2774,7 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="1:21" ht="18">
+    <row r="76" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2816,7 +2797,7 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="1:21" ht="18">
+    <row r="77" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2839,7 +2820,7 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" spans="1:21" ht="18">
+    <row r="78" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2862,7 +2843,7 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="1:21" ht="18">
+    <row r="79" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2885,7 +2866,7 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="1:21" ht="18">
+    <row r="80" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2908,7 +2889,7 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="1:21" ht="18">
+    <row r="81" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2931,7 +2912,7 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="1:21" ht="18">
+    <row r="82" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2954,7 +2935,7 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" spans="1:21" ht="18">
+    <row r="83" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2977,7 +2958,7 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="1:21" ht="18">
+    <row r="84" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3000,7 +2981,7 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" spans="1:21" ht="18">
+    <row r="85" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3023,7 +3004,7 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86" spans="1:21" ht="18">
+    <row r="86" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3046,7 +3027,7 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87" spans="1:21" ht="18">
+    <row r="87" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3069,7 +3050,7 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88" spans="1:21" ht="18">
+    <row r="88" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3092,7 +3073,7 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" spans="1:21" ht="18">
+    <row r="89" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3115,7 +3096,7 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" spans="1:21" ht="18">
+    <row r="90" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3138,7 +3119,7 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
     </row>
-    <row r="91" spans="1:21" ht="18">
+    <row r="91" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3161,7 +3142,7 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92" spans="1:21" ht="18">
+    <row r="92" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3184,7 +3165,7 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93" spans="1:21" ht="18">
+    <row r="93" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3207,7 +3188,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" spans="1:21" ht="18">
+    <row r="94" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3230,7 +3211,7 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" spans="1:21" ht="18">
+    <row r="95" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3253,7 +3234,7 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" spans="1:21" ht="18">
+    <row r="96" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3276,7 +3257,7 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97" spans="1:21" ht="18">
+    <row r="97" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3299,7 +3280,7 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98" spans="1:21" ht="18">
+    <row r="98" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3322,7 +3303,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" spans="1:21" ht="18">
+    <row r="99" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3345,7 +3326,7 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
     </row>
-    <row r="100" spans="1:21" ht="18">
+    <row r="100" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3368,7 +3349,7 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" spans="1:21" ht="18">
+    <row r="101" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3391,7 +3372,7 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" spans="1:21" ht="18">
+    <row r="102" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3414,7 +3395,7 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103" spans="1:21" ht="18">
+    <row r="103" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3437,7 +3418,7 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104" spans="1:21" ht="18">
+    <row r="104" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3460,7 +3441,7 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
     </row>
-    <row r="105" spans="1:21" ht="18">
+    <row r="105" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3483,7 +3464,7 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106" spans="1:21" ht="18">
+    <row r="106" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3506,7 +3487,7 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
     </row>
-    <row r="107" spans="1:21" ht="18">
+    <row r="107" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3529,7 +3510,7 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
     </row>
-    <row r="108" spans="1:21" ht="18">
+    <row r="108" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3552,7 +3533,7 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
     </row>
-    <row r="109" spans="1:21" ht="18">
+    <row r="109" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3575,7 +3556,7 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
     </row>
-    <row r="110" spans="1:21" ht="18">
+    <row r="110" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3598,7 +3579,7 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111" spans="1:21" ht="18">
+    <row r="111" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3621,7 +3602,7 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
     </row>
-    <row r="112" spans="1:21" ht="18">
+    <row r="112" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3644,7 +3625,7 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
     </row>
-    <row r="113" spans="1:21" ht="18">
+    <row r="113" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3667,7 +3648,7 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
-    <row r="114" spans="1:21" ht="18">
+    <row r="114" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3690,7 +3671,7 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
     </row>
-    <row r="115" spans="1:21" ht="18">
+    <row r="115" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3713,7 +3694,7 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116" spans="1:21" ht="18">
+    <row r="116" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3736,7 +3717,7 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
     </row>
-    <row r="117" spans="1:21" ht="18">
+    <row r="117" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3759,7 +3740,7 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
     </row>
-    <row r="118" spans="1:21" ht="18">
+    <row r="118" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3782,7 +3763,7 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
     </row>
-    <row r="119" spans="1:21" ht="18">
+    <row r="119" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3805,7 +3786,7 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
     </row>
-    <row r="120" spans="1:21" ht="18">
+    <row r="120" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3828,7 +3809,7 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121" spans="1:21" ht="18">
+    <row r="121" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3851,7 +3832,7 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
     </row>
-    <row r="122" spans="1:21" ht="18">
+    <row r="122" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3874,7 +3855,7 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123" spans="1:21" ht="18">
+    <row r="123" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3897,7 +3878,7 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124" spans="1:21" ht="18">
+    <row r="124" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3920,7 +3901,7 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125" spans="1:21" ht="18">
+    <row r="125" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3943,7 +3924,7 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126" spans="1:21" ht="18">
+    <row r="126" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3966,7 +3947,7 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127" spans="1:21" ht="18">
+    <row r="127" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3989,7 +3970,7 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
     </row>
-    <row r="128" spans="1:21" ht="18">
+    <row r="128" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4012,7 +3993,7 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
     </row>
-    <row r="129" spans="1:21" ht="18">
+    <row r="129" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4035,7 +4016,7 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130" spans="1:21" ht="18">
+    <row r="130" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4058,7 +4039,7 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131" spans="1:21" ht="18">
+    <row r="131" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4081,7 +4062,7 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
     </row>
-    <row r="132" spans="1:21" ht="18">
+    <row r="132" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4104,7 +4085,7 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133" spans="1:21" ht="18">
+    <row r="133" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4127,7 +4108,7 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
     </row>
-    <row r="134" spans="1:21" ht="18">
+    <row r="134" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4150,7 +4131,7 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
     </row>
-    <row r="135" spans="1:21" ht="18">
+    <row r="135" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4173,7 +4154,7 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136" spans="1:21" ht="18">
+    <row r="136" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4196,7 +4177,7 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
     </row>
-    <row r="137" spans="1:21" ht="18">
+    <row r="137" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4219,7 +4200,7 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
     </row>
-    <row r="138" spans="1:21" ht="18">
+    <row r="138" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4242,7 +4223,7 @@
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139" spans="1:21" ht="18">
+    <row r="139" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4265,7 +4246,7 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140" spans="1:21" ht="18">
+    <row r="140" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4288,7 +4269,7 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141" spans="1:21" ht="18">
+    <row r="141" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4311,7 +4292,7 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
     </row>
-    <row r="142" spans="1:21" ht="18">
+    <row r="142" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4334,7 +4315,7 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
     </row>
-    <row r="143" spans="1:21" ht="18">
+    <row r="143" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4357,7 +4338,7 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
     </row>
-    <row r="144" spans="1:21" ht="18">
+    <row r="144" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4380,7 +4361,7 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145" spans="1:21" ht="18">
+    <row r="145" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4403,7 +4384,7 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146" spans="1:21" ht="18">
+    <row r="146" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4426,7 +4407,7 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
     </row>
-    <row r="147" spans="1:21" ht="18">
+    <row r="147" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4449,7 +4430,7 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
     </row>
-    <row r="148" spans="1:21" ht="18">
+    <row r="148" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4472,7 +4453,7 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149" spans="1:21" ht="18">
+    <row r="149" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4495,7 +4476,7 @@
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
     </row>
-    <row r="150" spans="1:21" ht="18">
+    <row r="150" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4518,7 +4499,7 @@
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
     </row>
-    <row r="151" spans="1:21" ht="18">
+    <row r="151" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4541,7 +4522,7 @@
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
     </row>
-    <row r="152" spans="1:21" ht="18">
+    <row r="152" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4564,7 +4545,7 @@
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
     </row>
-    <row r="153" spans="1:21" ht="18">
+    <row r="153" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4587,7 +4568,7 @@
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
     </row>
-    <row r="154" spans="1:21" ht="18">
+    <row r="154" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4610,7 +4591,7 @@
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
     </row>
-    <row r="155" spans="1:21" ht="18">
+    <row r="155" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4633,7 +4614,7 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
     </row>
-    <row r="156" spans="1:21" ht="18">
+    <row r="156" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4656,7 +4637,7 @@
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
     </row>
-    <row r="157" spans="1:21" ht="18">
+    <row r="157" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4679,7 +4660,7 @@
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
     </row>
-    <row r="158" spans="1:21" ht="18">
+    <row r="158" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4702,7 +4683,7 @@
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
     </row>
-    <row r="159" spans="1:21" ht="18">
+    <row r="159" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4725,7 +4706,7 @@
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
     </row>
-    <row r="160" spans="1:21" ht="18">
+    <row r="160" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4748,7 +4729,7 @@
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
     </row>
-    <row r="161" spans="1:21" ht="18">
+    <row r="161" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4771,7 +4752,7 @@
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
     </row>
-    <row r="162" spans="1:21" ht="18">
+    <row r="162" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4794,7 +4775,7 @@
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
     </row>
-    <row r="163" spans="1:21" ht="18">
+    <row r="163" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4817,7 +4798,7 @@
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
     </row>
-    <row r="164" spans="1:21" ht="18">
+    <row r="164" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4840,7 +4821,7 @@
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
     </row>
-    <row r="165" spans="1:21" ht="18">
+    <row r="165" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4863,7 +4844,7 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
     </row>
-    <row r="166" spans="1:21" ht="18">
+    <row r="166" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4886,7 +4867,7 @@
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
     </row>
-    <row r="167" spans="1:21" ht="18">
+    <row r="167" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4909,7 +4890,7 @@
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
     </row>
-    <row r="168" spans="1:21" ht="18">
+    <row r="168" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4932,7 +4913,7 @@
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
     </row>
-    <row r="169" spans="1:21" ht="18">
+    <row r="169" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4955,7 +4936,7 @@
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
     </row>
-    <row r="170" spans="1:21" ht="18">
+    <row r="170" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4978,7 +4959,7 @@
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
     </row>
-    <row r="171" spans="1:21" ht="18">
+    <row r="171" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5001,7 +4982,7 @@
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
     </row>
-    <row r="172" spans="1:21" ht="18">
+    <row r="172" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5024,7 +5005,7 @@
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
     </row>
-    <row r="173" spans="1:21" ht="18">
+    <row r="173" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5047,7 +5028,7 @@
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
     </row>
-    <row r="174" spans="1:21" ht="18">
+    <row r="174" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5070,7 +5051,7 @@
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
     </row>
-    <row r="175" spans="1:21" ht="18">
+    <row r="175" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5093,7 +5074,7 @@
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
     </row>
-    <row r="176" spans="1:21" ht="18">
+    <row r="176" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5116,7 +5097,7 @@
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
     </row>
-    <row r="177" spans="1:21" ht="18">
+    <row r="177" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5139,7 +5120,7 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
     </row>
-    <row r="178" spans="1:21" ht="18">
+    <row r="178" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5162,7 +5143,7 @@
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
     </row>
-    <row r="179" spans="1:21" ht="18">
+    <row r="179" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5185,7 +5166,7 @@
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
     </row>
-    <row r="180" spans="1:21" ht="18">
+    <row r="180" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5208,7 +5189,7 @@
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
     </row>
-    <row r="181" spans="1:21" ht="18">
+    <row r="181" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5231,7 +5212,7 @@
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
     </row>
-    <row r="182" spans="1:21" ht="18">
+    <row r="182" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5254,7 +5235,7 @@
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
     </row>
-    <row r="183" spans="1:21" ht="18">
+    <row r="183" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5277,7 +5258,7 @@
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
     </row>
-    <row r="184" spans="1:21" ht="18">
+    <row r="184" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5300,7 +5281,7 @@
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
     </row>
-    <row r="185" spans="1:21" ht="18">
+    <row r="185" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5323,7 +5304,7 @@
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
     </row>
-    <row r="186" spans="1:21" ht="18">
+    <row r="186" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5346,7 +5327,7 @@
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
     </row>
-    <row r="187" spans="1:21" ht="18">
+    <row r="187" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5369,7 +5350,7 @@
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
     </row>
-    <row r="188" spans="1:21" ht="18">
+    <row r="188" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5392,7 +5373,7 @@
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
     </row>
-    <row r="189" spans="1:21" ht="18">
+    <row r="189" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5415,7 +5396,7 @@
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
     </row>
-    <row r="190" spans="1:21" ht="18">
+    <row r="190" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5438,7 +5419,7 @@
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
     </row>
-    <row r="191" spans="1:21" ht="18">
+    <row r="191" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5461,7 +5442,7 @@
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
     </row>
-    <row r="192" spans="1:21" ht="18">
+    <row r="192" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5484,7 +5465,7 @@
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
     </row>
-    <row r="193" spans="1:21" ht="18">
+    <row r="193" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5507,7 +5488,7 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
     </row>
-    <row r="194" spans="1:21" ht="18">
+    <row r="194" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5530,7 +5511,7 @@
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
     </row>
-    <row r="195" spans="1:21" ht="18">
+    <row r="195" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5553,7 +5534,7 @@
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
     </row>
-    <row r="196" spans="1:21" ht="18">
+    <row r="196" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5576,7 +5557,7 @@
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
     </row>
-    <row r="197" spans="1:21" ht="18">
+    <row r="197" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5599,7 +5580,7 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
     </row>
-    <row r="198" spans="1:21" ht="18">
+    <row r="198" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5622,7 +5603,7 @@
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
     </row>
-    <row r="199" spans="1:21" ht="18">
+    <row r="199" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5645,7 +5626,7 @@
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
     </row>
-    <row r="200" spans="1:21" ht="18">
+    <row r="200" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5668,7 +5649,7 @@
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
     </row>
-    <row r="201" spans="1:21" ht="18">
+    <row r="201" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -5691,7 +5672,7 @@
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
     </row>
-    <row r="202" spans="1:21" ht="18">
+    <row r="202" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -5714,7 +5695,7 @@
       <c r="T202" s="1"/>
       <c r="U202" s="1"/>
     </row>
-    <row r="203" spans="1:21" ht="18">
+    <row r="203" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -5737,7 +5718,7 @@
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
     </row>
-    <row r="204" spans="1:21" ht="18">
+    <row r="204" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -5760,7 +5741,7 @@
       <c r="T204" s="1"/>
       <c r="U204" s="1"/>
     </row>
-    <row r="205" spans="1:21" ht="18">
+    <row r="205" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -5783,7 +5764,7 @@
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
     </row>
-    <row r="206" spans="1:21" ht="18">
+    <row r="206" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -5806,7 +5787,7 @@
       <c r="T206" s="1"/>
       <c r="U206" s="1"/>
     </row>
-    <row r="207" spans="1:21" ht="18">
+    <row r="207" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -5829,7 +5810,7 @@
       <c r="T207" s="1"/>
       <c r="U207" s="1"/>
     </row>
-    <row r="208" spans="1:21" ht="18">
+    <row r="208" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -5852,7 +5833,7 @@
       <c r="T208" s="1"/>
       <c r="U208" s="1"/>
     </row>
-    <row r="209" spans="1:21" ht="18">
+    <row r="209" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -5875,7 +5856,7 @@
       <c r="T209" s="1"/>
       <c r="U209" s="1"/>
     </row>
-    <row r="210" spans="1:21" ht="18">
+    <row r="210" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -5898,7 +5879,7 @@
       <c r="T210" s="1"/>
       <c r="U210" s="1"/>
     </row>
-    <row r="211" spans="1:21" ht="18">
+    <row r="211" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -5921,7 +5902,7 @@
       <c r="T211" s="1"/>
       <c r="U211" s="1"/>
     </row>
-    <row r="212" spans="1:21" ht="18">
+    <row r="212" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -5944,7 +5925,7 @@
       <c r="T212" s="1"/>
       <c r="U212" s="1"/>
     </row>
-    <row r="213" spans="1:21" ht="18">
+    <row r="213" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -5967,7 +5948,7 @@
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
     </row>
-    <row r="214" spans="1:21" ht="18">
+    <row r="214" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -5990,7 +5971,7 @@
       <c r="T214" s="1"/>
       <c r="U214" s="1"/>
     </row>
-    <row r="215" spans="1:21" ht="18">
+    <row r="215" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6013,7 +5994,7 @@
       <c r="T215" s="1"/>
       <c r="U215" s="1"/>
     </row>
-    <row r="216" spans="1:21" ht="18">
+    <row r="216" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6036,7 +6017,7 @@
       <c r="T216" s="1"/>
       <c r="U216" s="1"/>
     </row>
-    <row r="217" spans="1:21" ht="18">
+    <row r="217" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6059,7 +6040,7 @@
       <c r="T217" s="1"/>
       <c r="U217" s="1"/>
     </row>
-    <row r="218" spans="1:21" ht="18">
+    <row r="218" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6082,7 +6063,7 @@
       <c r="T218" s="1"/>
       <c r="U218" s="1"/>
     </row>
-    <row r="219" spans="1:21" ht="18">
+    <row r="219" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6105,7 +6086,7 @@
       <c r="T219" s="1"/>
       <c r="U219" s="1"/>
     </row>
-    <row r="220" spans="1:21" ht="18">
+    <row r="220" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6128,7 +6109,7 @@
       <c r="T220" s="1"/>
       <c r="U220" s="1"/>
     </row>
-    <row r="221" spans="1:21" ht="18">
+    <row r="221" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6151,7 +6132,7 @@
       <c r="T221" s="1"/>
       <c r="U221" s="1"/>
     </row>
-    <row r="222" spans="1:21" ht="18">
+    <row r="222" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6174,7 +6155,7 @@
       <c r="T222" s="1"/>
       <c r="U222" s="1"/>
     </row>
-    <row r="223" spans="1:21" ht="18">
+    <row r="223" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6197,7 +6178,7 @@
       <c r="T223" s="1"/>
       <c r="U223" s="1"/>
     </row>
-    <row r="224" spans="1:21" ht="18">
+    <row r="224" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6220,7 +6201,7 @@
       <c r="T224" s="1"/>
       <c r="U224" s="1"/>
     </row>
-    <row r="225" spans="1:21" ht="18">
+    <row r="225" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6243,7 +6224,7 @@
       <c r="T225" s="1"/>
       <c r="U225" s="1"/>
     </row>
-    <row r="226" spans="1:21" ht="18">
+    <row r="226" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6266,7 +6247,7 @@
       <c r="T226" s="1"/>
       <c r="U226" s="1"/>
     </row>
-    <row r="227" spans="1:21" ht="18">
+    <row r="227" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6289,7 +6270,7 @@
       <c r="T227" s="1"/>
       <c r="U227" s="1"/>
     </row>
-    <row r="228" spans="1:21" ht="18">
+    <row r="228" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6312,7 +6293,7 @@
       <c r="T228" s="1"/>
       <c r="U228" s="1"/>
     </row>
-    <row r="229" spans="1:21" ht="18">
+    <row r="229" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6335,7 +6316,7 @@
       <c r="T229" s="1"/>
       <c r="U229" s="1"/>
     </row>
-    <row r="230" spans="1:21" ht="18">
+    <row r="230" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6358,7 +6339,7 @@
       <c r="T230" s="1"/>
       <c r="U230" s="1"/>
     </row>
-    <row r="231" spans="1:21" ht="18">
+    <row r="231" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6381,7 +6362,7 @@
       <c r="T231" s="1"/>
       <c r="U231" s="1"/>
     </row>
-    <row r="232" spans="1:21" ht="18">
+    <row r="232" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6404,7 +6385,7 @@
       <c r="T232" s="1"/>
       <c r="U232" s="1"/>
     </row>
-    <row r="233" spans="1:21" ht="18">
+    <row r="233" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6427,7 +6408,7 @@
       <c r="T233" s="1"/>
       <c r="U233" s="1"/>
     </row>
-    <row r="234" spans="1:21" ht="18">
+    <row r="234" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6450,7 +6431,7 @@
       <c r="T234" s="1"/>
       <c r="U234" s="1"/>
     </row>
-    <row r="235" spans="1:21" ht="18">
+    <row r="235" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6473,7 +6454,7 @@
       <c r="T235" s="1"/>
       <c r="U235" s="1"/>
     </row>
-    <row r="236" spans="1:21" ht="18">
+    <row r="236" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -6496,7 +6477,7 @@
       <c r="T236" s="1"/>
       <c r="U236" s="1"/>
     </row>
-    <row r="237" spans="1:21" ht="18">
+    <row r="237" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -6519,7 +6500,7 @@
       <c r="T237" s="1"/>
       <c r="U237" s="1"/>
     </row>
-    <row r="238" spans="1:21" ht="18">
+    <row r="238" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -6542,7 +6523,7 @@
       <c r="T238" s="1"/>
       <c r="U238" s="1"/>
     </row>
-    <row r="239" spans="1:21" ht="18">
+    <row r="239" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -6565,7 +6546,7 @@
       <c r="T239" s="1"/>
       <c r="U239" s="1"/>
     </row>
-    <row r="240" spans="1:21" ht="18">
+    <row r="240" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -6588,7 +6569,7 @@
       <c r="T240" s="1"/>
       <c r="U240" s="1"/>
     </row>
-    <row r="241" spans="1:21" ht="18">
+    <row r="241" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -6611,7 +6592,7 @@
       <c r="T241" s="1"/>
       <c r="U241" s="1"/>
     </row>
-    <row r="242" spans="1:21" ht="18">
+    <row r="242" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -6634,7 +6615,7 @@
       <c r="T242" s="1"/>
       <c r="U242" s="1"/>
     </row>
-    <row r="243" spans="1:21" ht="18">
+    <row r="243" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -6657,7 +6638,7 @@
       <c r="T243" s="1"/>
       <c r="U243" s="1"/>
     </row>
-    <row r="244" spans="1:21" ht="18">
+    <row r="244" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -6680,7 +6661,7 @@
       <c r="T244" s="1"/>
       <c r="U244" s="1"/>
     </row>
-    <row r="245" spans="1:21" ht="18">
+    <row r="245" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -6703,7 +6684,7 @@
       <c r="T245" s="1"/>
       <c r="U245" s="1"/>
     </row>
-    <row r="246" spans="1:21" ht="18">
+    <row r="246" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -6726,7 +6707,7 @@
       <c r="T246" s="1"/>
       <c r="U246" s="1"/>
     </row>
-    <row r="247" spans="1:21" ht="18">
+    <row r="247" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -6749,7 +6730,7 @@
       <c r="T247" s="1"/>
       <c r="U247" s="1"/>
     </row>
-    <row r="248" spans="1:21" ht="18">
+    <row r="248" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -6772,7 +6753,7 @@
       <c r="T248" s="1"/>
       <c r="U248" s="1"/>
     </row>
-    <row r="249" spans="1:21" ht="18">
+    <row r="249" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -6795,7 +6776,7 @@
       <c r="T249" s="1"/>
       <c r="U249" s="1"/>
     </row>
-    <row r="250" spans="1:21" ht="18">
+    <row r="250" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -6818,7 +6799,7 @@
       <c r="T250" s="1"/>
       <c r="U250" s="1"/>
     </row>
-    <row r="251" spans="1:21" ht="18">
+    <row r="251" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -6841,7 +6822,7 @@
       <c r="T251" s="1"/>
       <c r="U251" s="1"/>
     </row>
-    <row r="252" spans="1:21" ht="18">
+    <row r="252" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -6864,7 +6845,7 @@
       <c r="T252" s="1"/>
       <c r="U252" s="1"/>
     </row>
-    <row r="253" spans="1:21" ht="18">
+    <row r="253" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -6887,7 +6868,7 @@
       <c r="T253" s="1"/>
       <c r="U253" s="1"/>
     </row>
-    <row r="254" spans="1:21" ht="18">
+    <row r="254" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -6910,7 +6891,7 @@
       <c r="T254" s="1"/>
       <c r="U254" s="1"/>
     </row>
-    <row r="255" spans="1:21" ht="18">
+    <row r="255" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -6933,7 +6914,7 @@
       <c r="T255" s="1"/>
       <c r="U255" s="1"/>
     </row>
-    <row r="256" spans="1:21" ht="18">
+    <row r="256" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -6956,7 +6937,7 @@
       <c r="T256" s="1"/>
       <c r="U256" s="1"/>
     </row>
-    <row r="257" spans="1:21" ht="18">
+    <row r="257" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -6979,7 +6960,7 @@
       <c r="T257" s="1"/>
       <c r="U257" s="1"/>
     </row>
-    <row r="258" spans="1:21" ht="18">
+    <row r="258" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7002,7 +6983,7 @@
       <c r="T258" s="1"/>
       <c r="U258" s="1"/>
     </row>
-    <row r="259" spans="1:21" ht="18">
+    <row r="259" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -7025,7 +7006,7 @@
       <c r="T259" s="1"/>
       <c r="U259" s="1"/>
     </row>
-    <row r="260" spans="1:21" ht="18">
+    <row r="260" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7048,7 +7029,7 @@
       <c r="T260" s="1"/>
       <c r="U260" s="1"/>
     </row>
-    <row r="261" spans="1:21" ht="18">
+    <row r="261" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -7071,7 +7052,7 @@
       <c r="T261" s="1"/>
       <c r="U261" s="1"/>
     </row>
-    <row r="262" spans="1:21" ht="18">
+    <row r="262" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -7094,7 +7075,7 @@
       <c r="T262" s="1"/>
       <c r="U262" s="1"/>
     </row>
-    <row r="263" spans="1:21" ht="18">
+    <row r="263" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -7117,7 +7098,7 @@
       <c r="T263" s="1"/>
       <c r="U263" s="1"/>
     </row>
-    <row r="264" spans="1:21" ht="18">
+    <row r="264" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -7140,7 +7121,7 @@
       <c r="T264" s="1"/>
       <c r="U264" s="1"/>
     </row>
-    <row r="265" spans="1:21" ht="18">
+    <row r="265" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -7163,7 +7144,7 @@
       <c r="T265" s="1"/>
       <c r="U265" s="1"/>
     </row>
-    <row r="266" spans="1:21" ht="18">
+    <row r="266" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7186,7 +7167,7 @@
       <c r="T266" s="1"/>
       <c r="U266" s="1"/>
     </row>
-    <row r="267" spans="1:21" ht="18">
+    <row r="267" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -7209,7 +7190,7 @@
       <c r="T267" s="1"/>
       <c r="U267" s="1"/>
     </row>
-    <row r="268" spans="1:21" ht="18">
+    <row r="268" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -7232,7 +7213,7 @@
       <c r="T268" s="1"/>
       <c r="U268" s="1"/>
     </row>
-    <row r="269" spans="1:21" ht="18">
+    <row r="269" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -7255,7 +7236,7 @@
       <c r="T269" s="1"/>
       <c r="U269" s="1"/>
     </row>
-    <row r="270" spans="1:21" ht="18">
+    <row r="270" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -7278,7 +7259,7 @@
       <c r="T270" s="1"/>
       <c r="U270" s="1"/>
     </row>
-    <row r="271" spans="1:21" ht="18">
+    <row r="271" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -7301,7 +7282,7 @@
       <c r="T271" s="1"/>
       <c r="U271" s="1"/>
     </row>
-    <row r="272" spans="1:21" ht="18">
+    <row r="272" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -7324,7 +7305,7 @@
       <c r="T272" s="1"/>
       <c r="U272" s="1"/>
     </row>
-    <row r="273" spans="1:21" ht="18">
+    <row r="273" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -7347,7 +7328,7 @@
       <c r="T273" s="1"/>
       <c r="U273" s="1"/>
     </row>
-    <row r="274" spans="1:21" ht="18">
+    <row r="274" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -7370,7 +7351,7 @@
       <c r="T274" s="1"/>
       <c r="U274" s="1"/>
     </row>
-    <row r="275" spans="1:21" ht="18">
+    <row r="275" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -7393,7 +7374,7 @@
       <c r="T275" s="1"/>
       <c r="U275" s="1"/>
     </row>
-    <row r="276" spans="1:21" ht="18">
+    <row r="276" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -7416,7 +7397,7 @@
       <c r="T276" s="1"/>
       <c r="U276" s="1"/>
     </row>
-    <row r="277" spans="1:21" ht="18">
+    <row r="277" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -7439,7 +7420,7 @@
       <c r="T277" s="1"/>
       <c r="U277" s="1"/>
     </row>
-    <row r="278" spans="1:21" ht="18">
+    <row r="278" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -7462,7 +7443,7 @@
       <c r="T278" s="1"/>
       <c r="U278" s="1"/>
     </row>
-    <row r="279" spans="1:21" ht="18">
+    <row r="279" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -7485,7 +7466,7 @@
       <c r="T279" s="1"/>
       <c r="U279" s="1"/>
     </row>
-    <row r="280" spans="1:21" ht="18">
+    <row r="280" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -7508,7 +7489,7 @@
       <c r="T280" s="1"/>
       <c r="U280" s="1"/>
     </row>
-    <row r="281" spans="1:21" ht="18">
+    <row r="281" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -7531,7 +7512,7 @@
       <c r="T281" s="1"/>
       <c r="U281" s="1"/>
     </row>
-    <row r="282" spans="1:21" ht="18">
+    <row r="282" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -7554,7 +7535,7 @@
       <c r="T282" s="1"/>
       <c r="U282" s="1"/>
     </row>
-    <row r="283" spans="1:21" ht="18">
+    <row r="283" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -7577,7 +7558,7 @@
       <c r="T283" s="1"/>
       <c r="U283" s="1"/>
     </row>
-    <row r="284" spans="1:21" ht="18">
+    <row r="284" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -7600,7 +7581,7 @@
       <c r="T284" s="1"/>
       <c r="U284" s="1"/>
     </row>
-    <row r="285" spans="1:21" ht="18">
+    <row r="285" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -7623,7 +7604,7 @@
       <c r="T285" s="1"/>
       <c r="U285" s="1"/>
     </row>
-    <row r="286" spans="1:21" ht="18">
+    <row r="286" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -7646,7 +7627,7 @@
       <c r="T286" s="1"/>
       <c r="U286" s="1"/>
     </row>
-    <row r="287" spans="1:21" ht="18">
+    <row r="287" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -7669,7 +7650,7 @@
       <c r="T287" s="1"/>
       <c r="U287" s="1"/>
     </row>
-    <row r="288" spans="1:21" ht="18">
+    <row r="288" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -7692,7 +7673,7 @@
       <c r="T288" s="1"/>
       <c r="U288" s="1"/>
     </row>
-    <row r="289" spans="1:21" ht="18">
+    <row r="289" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -7715,7 +7696,7 @@
       <c r="T289" s="1"/>
       <c r="U289" s="1"/>
     </row>
-    <row r="290" spans="1:21" ht="18">
+    <row r="290" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -7738,7 +7719,7 @@
       <c r="T290" s="1"/>
       <c r="U290" s="1"/>
     </row>
-    <row r="291" spans="1:21" ht="18">
+    <row r="291" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -7761,7 +7742,7 @@
       <c r="T291" s="1"/>
       <c r="U291" s="1"/>
     </row>
-    <row r="292" spans="1:21" ht="18">
+    <row r="292" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -7784,7 +7765,7 @@
       <c r="T292" s="1"/>
       <c r="U292" s="1"/>
     </row>
-    <row r="293" spans="1:21" ht="18">
+    <row r="293" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -7807,7 +7788,7 @@
       <c r="T293" s="1"/>
       <c r="U293" s="1"/>
     </row>
-    <row r="294" spans="1:21" ht="18">
+    <row r="294" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -7830,7 +7811,7 @@
       <c r="T294" s="1"/>
       <c r="U294" s="1"/>
     </row>
-    <row r="295" spans="1:21" ht="18">
+    <row r="295" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -7853,7 +7834,7 @@
       <c r="T295" s="1"/>
       <c r="U295" s="1"/>
     </row>
-    <row r="296" spans="1:21" ht="18">
+    <row r="296" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -7876,7 +7857,7 @@
       <c r="T296" s="1"/>
       <c r="U296" s="1"/>
     </row>
-    <row r="297" spans="1:21" ht="18">
+    <row r="297" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -7899,7 +7880,7 @@
       <c r="T297" s="1"/>
       <c r="U297" s="1"/>
     </row>
-    <row r="298" spans="1:21" ht="18">
+    <row r="298" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -7922,7 +7903,7 @@
       <c r="T298" s="1"/>
       <c r="U298" s="1"/>
     </row>
-    <row r="299" spans="1:21" ht="18">
+    <row r="299" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -7945,7 +7926,7 @@
       <c r="T299" s="1"/>
       <c r="U299" s="1"/>
     </row>
-    <row r="300" spans="1:21" ht="18">
+    <row r="300" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -7968,7 +7949,7 @@
       <c r="T300" s="1"/>
       <c r="U300" s="1"/>
     </row>
-    <row r="301" spans="1:21" ht="18">
+    <row r="301" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -7991,7 +7972,7 @@
       <c r="T301" s="1"/>
       <c r="U301" s="1"/>
     </row>
-    <row r="302" spans="1:21" ht="18">
+    <row r="302" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -8014,7 +7995,7 @@
       <c r="T302" s="1"/>
       <c r="U302" s="1"/>
     </row>
-    <row r="303" spans="1:21" ht="18">
+    <row r="303" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -8037,7 +8018,7 @@
       <c r="T303" s="1"/>
       <c r="U303" s="1"/>
     </row>
-    <row r="304" spans="1:21" ht="18">
+    <row r="304" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -8060,7 +8041,7 @@
       <c r="T304" s="1"/>
       <c r="U304" s="1"/>
     </row>
-    <row r="305" spans="1:21" ht="18">
+    <row r="305" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -8083,7 +8064,7 @@
       <c r="T305" s="1"/>
       <c r="U305" s="1"/>
     </row>
-    <row r="306" spans="1:21" ht="18">
+    <row r="306" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -8106,7 +8087,7 @@
       <c r="T306" s="1"/>
       <c r="U306" s="1"/>
     </row>
-    <row r="307" spans="1:21" ht="18">
+    <row r="307" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -8129,7 +8110,7 @@
       <c r="T307" s="1"/>
       <c r="U307" s="1"/>
     </row>
-    <row r="308" spans="1:21" ht="18">
+    <row r="308" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -8152,7 +8133,7 @@
       <c r="T308" s="1"/>
       <c r="U308" s="1"/>
     </row>
-    <row r="309" spans="1:21" ht="18">
+    <row r="309" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -8175,7 +8156,7 @@
       <c r="T309" s="1"/>
       <c r="U309" s="1"/>
     </row>
-    <row r="310" spans="1:21" ht="18">
+    <row r="310" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -8198,7 +8179,7 @@
       <c r="T310" s="1"/>
       <c r="U310" s="1"/>
     </row>
-    <row r="311" spans="1:21" ht="18">
+    <row r="311" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -8221,7 +8202,7 @@
       <c r="T311" s="1"/>
       <c r="U311" s="1"/>
     </row>
-    <row r="312" spans="1:21" ht="18">
+    <row r="312" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -8244,7 +8225,7 @@
       <c r="T312" s="1"/>
       <c r="U312" s="1"/>
     </row>
-    <row r="313" spans="1:21" ht="18">
+    <row r="313" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -8267,7 +8248,7 @@
       <c r="T313" s="1"/>
       <c r="U313" s="1"/>
     </row>
-    <row r="314" spans="1:21" ht="18">
+    <row r="314" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -8290,7 +8271,7 @@
       <c r="T314" s="1"/>
       <c r="U314" s="1"/>
     </row>
-    <row r="315" spans="1:21" ht="18">
+    <row r="315" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -8313,7 +8294,7 @@
       <c r="T315" s="1"/>
       <c r="U315" s="1"/>
     </row>
-    <row r="316" spans="1:21" ht="18">
+    <row r="316" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -8336,7 +8317,7 @@
       <c r="T316" s="1"/>
       <c r="U316" s="1"/>
     </row>
-    <row r="317" spans="1:21" ht="18">
+    <row r="317" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -8359,7 +8340,7 @@
       <c r="T317" s="1"/>
       <c r="U317" s="1"/>
     </row>
-    <row r="318" spans="1:21" ht="18">
+    <row r="318" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -8382,7 +8363,7 @@
       <c r="T318" s="1"/>
       <c r="U318" s="1"/>
     </row>
-    <row r="319" spans="1:21" ht="18">
+    <row r="319" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -8405,7 +8386,7 @@
       <c r="T319" s="1"/>
       <c r="U319" s="1"/>
     </row>
-    <row r="320" spans="1:21" ht="18">
+    <row r="320" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -8428,7 +8409,7 @@
       <c r="T320" s="1"/>
       <c r="U320" s="1"/>
     </row>
-    <row r="321" spans="1:21" ht="18">
+    <row r="321" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -8451,7 +8432,7 @@
       <c r="T321" s="1"/>
       <c r="U321" s="1"/>
     </row>
-    <row r="322" spans="1:21" ht="18">
+    <row r="322" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -8474,7 +8455,7 @@
       <c r="T322" s="1"/>
       <c r="U322" s="1"/>
     </row>
-    <row r="323" spans="1:21" ht="18">
+    <row r="323" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -8497,7 +8478,7 @@
       <c r="T323" s="1"/>
       <c r="U323" s="1"/>
     </row>
-    <row r="324" spans="1:21" ht="18">
+    <row r="324" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -8520,7 +8501,7 @@
       <c r="T324" s="1"/>
       <c r="U324" s="1"/>
     </row>
-    <row r="325" spans="1:21" ht="18">
+    <row r="325" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -8543,7 +8524,7 @@
       <c r="T325" s="1"/>
       <c r="U325" s="1"/>
     </row>
-    <row r="326" spans="1:21" ht="18">
+    <row r="326" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -8566,7 +8547,7 @@
       <c r="T326" s="1"/>
       <c r="U326" s="1"/>
     </row>
-    <row r="327" spans="1:21" ht="18">
+    <row r="327" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -8589,7 +8570,7 @@
       <c r="T327" s="1"/>
       <c r="U327" s="1"/>
     </row>
-    <row r="328" spans="1:21" ht="18">
+    <row r="328" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -8612,7 +8593,7 @@
       <c r="T328" s="1"/>
       <c r="U328" s="1"/>
     </row>
-    <row r="329" spans="1:21" ht="18">
+    <row r="329" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -8635,7 +8616,7 @@
       <c r="T329" s="1"/>
       <c r="U329" s="1"/>
     </row>
-    <row r="330" spans="1:21" ht="18">
+    <row r="330" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -8658,7 +8639,7 @@
       <c r="T330" s="1"/>
       <c r="U330" s="1"/>
     </row>
-    <row r="331" spans="1:21" ht="18">
+    <row r="331" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -8681,7 +8662,7 @@
       <c r="T331" s="1"/>
       <c r="U331" s="1"/>
     </row>
-    <row r="332" spans="1:21" ht="18">
+    <row r="332" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -8704,7 +8685,7 @@
       <c r="T332" s="1"/>
       <c r="U332" s="1"/>
     </row>
-    <row r="333" spans="1:21" ht="18">
+    <row r="333" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -8727,7 +8708,7 @@
       <c r="T333" s="1"/>
       <c r="U333" s="1"/>
     </row>
-    <row r="334" spans="1:21" ht="18">
+    <row r="334" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -8750,7 +8731,7 @@
       <c r="T334" s="1"/>
       <c r="U334" s="1"/>
     </row>
-    <row r="335" spans="1:21" ht="18">
+    <row r="335" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -8773,7 +8754,7 @@
       <c r="T335" s="1"/>
       <c r="U335" s="1"/>
     </row>
-    <row r="336" spans="1:21" ht="18">
+    <row r="336" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -8796,7 +8777,7 @@
       <c r="T336" s="1"/>
       <c r="U336" s="1"/>
     </row>
-    <row r="337" spans="1:21" ht="18">
+    <row r="337" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -8819,7 +8800,7 @@
       <c r="T337" s="1"/>
       <c r="U337" s="1"/>
     </row>
-    <row r="338" spans="1:21" ht="18">
+    <row r="338" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -8842,7 +8823,7 @@
       <c r="T338" s="1"/>
       <c r="U338" s="1"/>
     </row>
-    <row r="339" spans="1:21" ht="18">
+    <row r="339" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -8865,7 +8846,7 @@
       <c r="T339" s="1"/>
       <c r="U339" s="1"/>
     </row>
-    <row r="340" spans="1:21" ht="18">
+    <row r="340" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -8888,7 +8869,7 @@
       <c r="T340" s="1"/>
       <c r="U340" s="1"/>
     </row>
-    <row r="341" spans="1:21" ht="18">
+    <row r="341" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -8911,7 +8892,7 @@
       <c r="T341" s="1"/>
       <c r="U341" s="1"/>
     </row>
-    <row r="342" spans="1:21" ht="18">
+    <row r="342" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -8934,7 +8915,7 @@
       <c r="T342" s="1"/>
       <c r="U342" s="1"/>
     </row>
-    <row r="343" spans="1:21" ht="18">
+    <row r="343" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -8957,7 +8938,7 @@
       <c r="T343" s="1"/>
       <c r="U343" s="1"/>
     </row>
-    <row r="344" spans="1:21" ht="18">
+    <row r="344" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -8980,7 +8961,7 @@
       <c r="T344" s="1"/>
       <c r="U344" s="1"/>
     </row>
-    <row r="345" spans="1:21" ht="18">
+    <row r="345" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -9003,7 +8984,7 @@
       <c r="T345" s="1"/>
       <c r="U345" s="1"/>
     </row>
-    <row r="346" spans="1:21" ht="18">
+    <row r="346" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -9026,7 +9007,7 @@
       <c r="T346" s="1"/>
       <c r="U346" s="1"/>
     </row>
-    <row r="347" spans="1:21" ht="18">
+    <row r="347" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -9049,7 +9030,7 @@
       <c r="T347" s="1"/>
       <c r="U347" s="1"/>
     </row>
-    <row r="348" spans="1:21" ht="18">
+    <row r="348" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -9072,7 +9053,7 @@
       <c r="T348" s="1"/>
       <c r="U348" s="1"/>
     </row>
-    <row r="349" spans="1:21" ht="18">
+    <row r="349" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -9095,7 +9076,7 @@
       <c r="T349" s="1"/>
       <c r="U349" s="1"/>
     </row>
-    <row r="350" spans="1:21" ht="18">
+    <row r="350" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -9118,7 +9099,7 @@
       <c r="T350" s="1"/>
       <c r="U350" s="1"/>
     </row>
-    <row r="351" spans="1:21" ht="18">
+    <row r="351" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -9141,7 +9122,7 @@
       <c r="T351" s="1"/>
       <c r="U351" s="1"/>
     </row>
-    <row r="352" spans="1:21" ht="18">
+    <row r="352" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -9164,7 +9145,7 @@
       <c r="T352" s="1"/>
       <c r="U352" s="1"/>
     </row>
-    <row r="353" spans="1:21" ht="18">
+    <row r="353" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -9187,7 +9168,7 @@
       <c r="T353" s="1"/>
       <c r="U353" s="1"/>
     </row>
-    <row r="354" spans="1:21" ht="18">
+    <row r="354" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -9210,7 +9191,7 @@
       <c r="T354" s="1"/>
       <c r="U354" s="1"/>
     </row>
-    <row r="355" spans="1:21" ht="18">
+    <row r="355" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -9233,7 +9214,7 @@
       <c r="T355" s="1"/>
       <c r="U355" s="1"/>
     </row>
-    <row r="356" spans="1:21" ht="18">
+    <row r="356" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -9256,7 +9237,7 @@
       <c r="T356" s="1"/>
       <c r="U356" s="1"/>
     </row>
-    <row r="357" spans="1:21" ht="18">
+    <row r="357" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -9279,7 +9260,7 @@
       <c r="T357" s="1"/>
       <c r="U357" s="1"/>
     </row>
-    <row r="358" spans="1:21" ht="18">
+    <row r="358" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -9302,7 +9283,7 @@
       <c r="T358" s="1"/>
       <c r="U358" s="1"/>
     </row>
-    <row r="359" spans="1:21" ht="18">
+    <row r="359" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -9325,7 +9306,7 @@
       <c r="T359" s="1"/>
       <c r="U359" s="1"/>
     </row>
-    <row r="360" spans="1:21" ht="18">
+    <row r="360" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -9348,7 +9329,7 @@
       <c r="T360" s="1"/>
       <c r="U360" s="1"/>
     </row>
-    <row r="361" spans="1:21" ht="18">
+    <row r="361" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -9371,7 +9352,7 @@
       <c r="T361" s="1"/>
       <c r="U361" s="1"/>
     </row>
-    <row r="362" spans="1:21" ht="18">
+    <row r="362" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -9394,7 +9375,7 @@
       <c r="T362" s="1"/>
       <c r="U362" s="1"/>
     </row>
-    <row r="363" spans="1:21" ht="18">
+    <row r="363" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -9417,7 +9398,7 @@
       <c r="T363" s="1"/>
       <c r="U363" s="1"/>
     </row>
-    <row r="364" spans="1:21" ht="18">
+    <row r="364" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -9440,7 +9421,7 @@
       <c r="T364" s="1"/>
       <c r="U364" s="1"/>
     </row>
-    <row r="365" spans="1:21" ht="18">
+    <row r="365" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -9463,7 +9444,7 @@
       <c r="T365" s="1"/>
       <c r="U365" s="1"/>
     </row>
-    <row r="366" spans="1:21" ht="18">
+    <row r="366" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -9486,7 +9467,7 @@
       <c r="T366" s="1"/>
       <c r="U366" s="1"/>
     </row>
-    <row r="367" spans="1:21" ht="18">
+    <row r="367" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -9509,7 +9490,7 @@
       <c r="T367" s="1"/>
       <c r="U367" s="1"/>
     </row>
-    <row r="368" spans="1:21" ht="18">
+    <row r="368" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -9532,7 +9513,7 @@
       <c r="T368" s="1"/>
       <c r="U368" s="1"/>
     </row>
-    <row r="369" spans="1:21" ht="18">
+    <row r="369" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -9555,7 +9536,7 @@
       <c r="T369" s="1"/>
       <c r="U369" s="1"/>
     </row>
-    <row r="370" spans="1:21" ht="18">
+    <row r="370" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -9578,7 +9559,7 @@
       <c r="T370" s="1"/>
       <c r="U370" s="1"/>
     </row>
-    <row r="371" spans="1:21" ht="18">
+    <row r="371" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -9601,7 +9582,7 @@
       <c r="T371" s="1"/>
       <c r="U371" s="1"/>
     </row>
-    <row r="372" spans="1:21" ht="18">
+    <row r="372" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -9624,7 +9605,7 @@
       <c r="T372" s="1"/>
       <c r="U372" s="1"/>
     </row>
-    <row r="373" spans="1:21" ht="18">
+    <row r="373" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -9647,7 +9628,7 @@
       <c r="T373" s="1"/>
       <c r="U373" s="1"/>
     </row>
-    <row r="374" spans="1:21" ht="18">
+    <row r="374" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -9670,7 +9651,7 @@
       <c r="T374" s="1"/>
       <c r="U374" s="1"/>
     </row>
-    <row r="375" spans="1:21" ht="18">
+    <row r="375" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -9693,7 +9674,7 @@
       <c r="T375" s="1"/>
       <c r="U375" s="1"/>
     </row>
-    <row r="376" spans="1:21" ht="18">
+    <row r="376" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -9716,7 +9697,7 @@
       <c r="T376" s="1"/>
       <c r="U376" s="1"/>
     </row>
-    <row r="377" spans="1:21" ht="18">
+    <row r="377" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -9739,7 +9720,7 @@
       <c r="T377" s="1"/>
       <c r="U377" s="1"/>
     </row>
-    <row r="378" spans="1:21" ht="18">
+    <row r="378" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -9762,7 +9743,7 @@
       <c r="T378" s="1"/>
       <c r="U378" s="1"/>
     </row>
-    <row r="379" spans="1:21" ht="18">
+    <row r="379" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -9785,7 +9766,7 @@
       <c r="T379" s="1"/>
       <c r="U379" s="1"/>
     </row>
-    <row r="380" spans="1:21" ht="18">
+    <row r="380" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -9808,7 +9789,7 @@
       <c r="T380" s="1"/>
       <c r="U380" s="1"/>
     </row>
-    <row r="381" spans="1:21" ht="18">
+    <row r="381" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -9831,7 +9812,7 @@
       <c r="T381" s="1"/>
       <c r="U381" s="1"/>
     </row>
-    <row r="382" spans="1:21" ht="18">
+    <row r="382" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -9854,7 +9835,7 @@
       <c r="T382" s="1"/>
       <c r="U382" s="1"/>
     </row>
-    <row r="383" spans="1:21" ht="18">
+    <row r="383" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -9877,7 +9858,7 @@
       <c r="T383" s="1"/>
       <c r="U383" s="1"/>
     </row>
-    <row r="384" spans="1:21" ht="18">
+    <row r="384" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -9900,7 +9881,7 @@
       <c r="T384" s="1"/>
       <c r="U384" s="1"/>
     </row>
-    <row r="385" spans="1:21" ht="18">
+    <row r="385" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -9923,7 +9904,7 @@
       <c r="T385" s="1"/>
       <c r="U385" s="1"/>
     </row>
-    <row r="386" spans="1:21" ht="18">
+    <row r="386" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -9946,7 +9927,7 @@
       <c r="T386" s="1"/>
       <c r="U386" s="1"/>
     </row>
-    <row r="387" spans="1:21" ht="18">
+    <row r="387" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -9969,7 +9950,7 @@
       <c r="T387" s="1"/>
       <c r="U387" s="1"/>
     </row>
-    <row r="388" spans="1:21" ht="18">
+    <row r="388" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -9992,7 +9973,7 @@
       <c r="T388" s="1"/>
       <c r="U388" s="1"/>
     </row>
-    <row r="389" spans="1:21" ht="18">
+    <row r="389" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -10015,7 +9996,7 @@
       <c r="T389" s="1"/>
       <c r="U389" s="1"/>
     </row>
-    <row r="390" spans="1:21" ht="18">
+    <row r="390" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -10038,7 +10019,7 @@
       <c r="T390" s="1"/>
       <c r="U390" s="1"/>
     </row>
-    <row r="391" spans="1:21" ht="18">
+    <row r="391" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -10061,7 +10042,7 @@
       <c r="T391" s="1"/>
       <c r="U391" s="1"/>
     </row>
-    <row r="392" spans="1:21" ht="18">
+    <row r="392" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -10084,7 +10065,7 @@
       <c r="T392" s="1"/>
       <c r="U392" s="1"/>
     </row>
-    <row r="393" spans="1:21" ht="18">
+    <row r="393" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -10107,7 +10088,7 @@
       <c r="T393" s="1"/>
       <c r="U393" s="1"/>
     </row>
-    <row r="394" spans="1:21" ht="18">
+    <row r="394" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -10130,7 +10111,7 @@
       <c r="T394" s="1"/>
       <c r="U394" s="1"/>
     </row>
-    <row r="395" spans="1:21" ht="18">
+    <row r="395" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -10153,7 +10134,7 @@
       <c r="T395" s="1"/>
       <c r="U395" s="1"/>
     </row>
-    <row r="396" spans="1:21" ht="18">
+    <row r="396" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -10176,7 +10157,7 @@
       <c r="T396" s="1"/>
       <c r="U396" s="1"/>
     </row>
-    <row r="397" spans="1:21" ht="18">
+    <row r="397" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -10199,7 +10180,7 @@
       <c r="T397" s="1"/>
       <c r="U397" s="1"/>
     </row>
-    <row r="398" spans="1:21" ht="18">
+    <row r="398" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -10222,7 +10203,7 @@
       <c r="T398" s="1"/>
       <c r="U398" s="1"/>
     </row>
-    <row r="399" spans="1:21" ht="18">
+    <row r="399" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -10245,7 +10226,7 @@
       <c r="T399" s="1"/>
       <c r="U399" s="1"/>
     </row>
-    <row r="400" spans="1:21" ht="18">
+    <row r="400" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -10268,7 +10249,7 @@
       <c r="T400" s="1"/>
       <c r="U400" s="1"/>
     </row>
-    <row r="401" spans="1:21" ht="18">
+    <row r="401" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -10291,7 +10272,7 @@
       <c r="T401" s="1"/>
       <c r="U401" s="1"/>
     </row>
-    <row r="402" spans="1:21" ht="18">
+    <row r="402" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -10314,7 +10295,7 @@
       <c r="T402" s="1"/>
       <c r="U402" s="1"/>
     </row>
-    <row r="403" spans="1:21" ht="18">
+    <row r="403" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -10337,7 +10318,7 @@
       <c r="T403" s="1"/>
       <c r="U403" s="1"/>
     </row>
-    <row r="404" spans="1:21" ht="18">
+    <row r="404" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -10360,7 +10341,7 @@
       <c r="T404" s="1"/>
       <c r="U404" s="1"/>
     </row>
-    <row r="405" spans="1:21" ht="18">
+    <row r="405" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -10383,7 +10364,7 @@
       <c r="T405" s="1"/>
       <c r="U405" s="1"/>
     </row>
-    <row r="406" spans="1:21" ht="18">
+    <row r="406" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -10406,7 +10387,7 @@
       <c r="T406" s="1"/>
       <c r="U406" s="1"/>
     </row>
-    <row r="407" spans="1:21" ht="18">
+    <row r="407" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -10429,7 +10410,7 @@
       <c r="T407" s="1"/>
       <c r="U407" s="1"/>
     </row>
-    <row r="408" spans="1:21" ht="18">
+    <row r="408" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -10452,7 +10433,7 @@
       <c r="T408" s="1"/>
       <c r="U408" s="1"/>
     </row>
-    <row r="409" spans="1:21" ht="18">
+    <row r="409" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -10475,7 +10456,7 @@
       <c r="T409" s="1"/>
       <c r="U409" s="1"/>
     </row>
-    <row r="410" spans="1:21" ht="18">
+    <row r="410" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -10498,7 +10479,7 @@
       <c r="T410" s="1"/>
       <c r="U410" s="1"/>
     </row>
-    <row r="411" spans="1:21" ht="18">
+    <row r="411" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -10521,7 +10502,7 @@
       <c r="T411" s="1"/>
       <c r="U411" s="1"/>
     </row>
-    <row r="412" spans="1:21" ht="18">
+    <row r="412" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -10544,7 +10525,7 @@
       <c r="T412" s="1"/>
       <c r="U412" s="1"/>
     </row>
-    <row r="413" spans="1:21" ht="18">
+    <row r="413" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -10567,7 +10548,7 @@
       <c r="T413" s="1"/>
       <c r="U413" s="1"/>
     </row>
-    <row r="414" spans="1:21" ht="18">
+    <row r="414" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -10590,7 +10571,7 @@
       <c r="T414" s="1"/>
       <c r="U414" s="1"/>
     </row>
-    <row r="415" spans="1:21" ht="18">
+    <row r="415" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -10613,7 +10594,7 @@
       <c r="T415" s="1"/>
       <c r="U415" s="1"/>
     </row>
-    <row r="416" spans="1:21" ht="18">
+    <row r="416" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -10636,7 +10617,7 @@
       <c r="T416" s="1"/>
       <c r="U416" s="1"/>
     </row>
-    <row r="417" spans="1:21" ht="18">
+    <row r="417" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -10659,7 +10640,7 @@
       <c r="T417" s="1"/>
       <c r="U417" s="1"/>
     </row>
-    <row r="418" spans="1:21" ht="18">
+    <row r="418" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -10682,7 +10663,7 @@
       <c r="T418" s="1"/>
       <c r="U418" s="1"/>
     </row>
-    <row r="419" spans="1:21" ht="18">
+    <row r="419" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -10705,7 +10686,7 @@
       <c r="T419" s="1"/>
       <c r="U419" s="1"/>
     </row>
-    <row r="420" spans="1:21" ht="18">
+    <row r="420" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -10728,7 +10709,7 @@
       <c r="T420" s="1"/>
       <c r="U420" s="1"/>
     </row>
-    <row r="421" spans="1:21" ht="18">
+    <row r="421" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -10751,7 +10732,7 @@
       <c r="T421" s="1"/>
       <c r="U421" s="1"/>
     </row>
-    <row r="422" spans="1:21" ht="18">
+    <row r="422" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -10774,7 +10755,7 @@
       <c r="T422" s="1"/>
       <c r="U422" s="1"/>
     </row>
-    <row r="423" spans="1:21" ht="18">
+    <row r="423" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -10797,7 +10778,7 @@
       <c r="T423" s="1"/>
       <c r="U423" s="1"/>
     </row>
-    <row r="424" spans="1:21" ht="18">
+    <row r="424" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -10820,7 +10801,7 @@
       <c r="T424" s="1"/>
       <c r="U424" s="1"/>
     </row>
-    <row r="425" spans="1:21" ht="18">
+    <row r="425" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -10843,7 +10824,7 @@
       <c r="T425" s="1"/>
       <c r="U425" s="1"/>
     </row>
-    <row r="426" spans="1:21" ht="18">
+    <row r="426" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -10866,7 +10847,7 @@
       <c r="T426" s="1"/>
       <c r="U426" s="1"/>
     </row>
-    <row r="427" spans="1:21" ht="18">
+    <row r="427" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -10889,7 +10870,7 @@
       <c r="T427" s="1"/>
       <c r="U427" s="1"/>
     </row>
-    <row r="428" spans="1:21" ht="18">
+    <row r="428" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -10912,7 +10893,7 @@
       <c r="T428" s="1"/>
       <c r="U428" s="1"/>
     </row>
-    <row r="429" spans="1:21" ht="18">
+    <row r="429" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -10935,7 +10916,7 @@
       <c r="T429" s="1"/>
       <c r="U429" s="1"/>
     </row>
-    <row r="430" spans="1:21" ht="18">
+    <row r="430" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -10958,7 +10939,7 @@
       <c r="T430" s="1"/>
       <c r="U430" s="1"/>
     </row>
-    <row r="431" spans="1:21" ht="18">
+    <row r="431" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -10981,7 +10962,7 @@
       <c r="T431" s="1"/>
       <c r="U431" s="1"/>
     </row>
-    <row r="432" spans="1:21" ht="18">
+    <row r="432" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -11004,7 +10985,7 @@
       <c r="T432" s="1"/>
       <c r="U432" s="1"/>
     </row>
-    <row r="433" spans="1:21" ht="18">
+    <row r="433" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -11027,7 +11008,7 @@
       <c r="T433" s="1"/>
       <c r="U433" s="1"/>
     </row>
-    <row r="434" spans="1:21" ht="18">
+    <row r="434" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -11050,7 +11031,7 @@
       <c r="T434" s="1"/>
       <c r="U434" s="1"/>
     </row>
-    <row r="435" spans="1:21" ht="18">
+    <row r="435" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -11073,7 +11054,7 @@
       <c r="T435" s="1"/>
       <c r="U435" s="1"/>
     </row>
-    <row r="436" spans="1:21" ht="18">
+    <row r="436" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -11096,7 +11077,7 @@
       <c r="T436" s="1"/>
       <c r="U436" s="1"/>
     </row>
-    <row r="437" spans="1:21" ht="18">
+    <row r="437" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -11119,7 +11100,7 @@
       <c r="T437" s="1"/>
       <c r="U437" s="1"/>
     </row>
-    <row r="438" spans="1:21" ht="18">
+    <row r="438" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -11142,7 +11123,7 @@
       <c r="T438" s="1"/>
       <c r="U438" s="1"/>
     </row>
-    <row r="439" spans="1:21" ht="18">
+    <row r="439" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -11165,7 +11146,7 @@
       <c r="T439" s="1"/>
       <c r="U439" s="1"/>
     </row>
-    <row r="440" spans="1:21" ht="18">
+    <row r="440" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -11188,7 +11169,7 @@
       <c r="T440" s="1"/>
       <c r="U440" s="1"/>
     </row>
-    <row r="441" spans="1:21" ht="18">
+    <row r="441" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -11211,7 +11192,7 @@
       <c r="T441" s="1"/>
       <c r="U441" s="1"/>
     </row>
-    <row r="442" spans="1:21" ht="18">
+    <row r="442" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -11234,7 +11215,7 @@
       <c r="T442" s="1"/>
       <c r="U442" s="1"/>
     </row>
-    <row r="443" spans="1:21" ht="18">
+    <row r="443" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -11257,7 +11238,7 @@
       <c r="T443" s="1"/>
       <c r="U443" s="1"/>
     </row>
-    <row r="444" spans="1:21" ht="18">
+    <row r="444" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -11280,7 +11261,7 @@
       <c r="T444" s="1"/>
       <c r="U444" s="1"/>
     </row>
-    <row r="445" spans="1:21" ht="18">
+    <row r="445" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -11303,7 +11284,7 @@
       <c r="T445" s="1"/>
       <c r="U445" s="1"/>
     </row>
-    <row r="446" spans="1:21" ht="18">
+    <row r="446" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -11326,7 +11307,7 @@
       <c r="T446" s="1"/>
       <c r="U446" s="1"/>
     </row>
-    <row r="447" spans="1:21" ht="18">
+    <row r="447" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -11349,7 +11330,7 @@
       <c r="T447" s="1"/>
       <c r="U447" s="1"/>
     </row>
-    <row r="448" spans="1:21" ht="18">
+    <row r="448" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -11372,7 +11353,7 @@
       <c r="T448" s="1"/>
       <c r="U448" s="1"/>
     </row>
-    <row r="449" spans="1:21" ht="18">
+    <row r="449" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -11395,7 +11376,7 @@
       <c r="T449" s="1"/>
       <c r="U449" s="1"/>
     </row>
-    <row r="450" spans="1:21" ht="18">
+    <row r="450" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -11418,7 +11399,7 @@
       <c r="T450" s="1"/>
       <c r="U450" s="1"/>
     </row>
-    <row r="451" spans="1:21" ht="18">
+    <row r="451" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -11441,7 +11422,7 @@
       <c r="T451" s="1"/>
       <c r="U451" s="1"/>
     </row>
-    <row r="452" spans="1:21" ht="18">
+    <row r="452" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -11464,7 +11445,7 @@
       <c r="T452" s="1"/>
       <c r="U452" s="1"/>
     </row>
-    <row r="453" spans="1:21" ht="18">
+    <row r="453" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -11487,7 +11468,7 @@
       <c r="T453" s="1"/>
       <c r="U453" s="1"/>
     </row>
-    <row r="454" spans="1:21" ht="18">
+    <row r="454" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -11510,7 +11491,7 @@
       <c r="T454" s="1"/>
       <c r="U454" s="1"/>
     </row>
-    <row r="455" spans="1:21" ht="18">
+    <row r="455" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -11533,7 +11514,7 @@
       <c r="T455" s="1"/>
       <c r="U455" s="1"/>
     </row>
-    <row r="456" spans="1:21" ht="18">
+    <row r="456" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -11556,7 +11537,7 @@
       <c r="T456" s="1"/>
       <c r="U456" s="1"/>
     </row>
-    <row r="457" spans="1:21" ht="18">
+    <row r="457" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -11579,7 +11560,7 @@
       <c r="T457" s="1"/>
       <c r="U457" s="1"/>
     </row>
-    <row r="458" spans="1:21" ht="18">
+    <row r="458" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -11602,7 +11583,7 @@
       <c r="T458" s="1"/>
       <c r="U458" s="1"/>
     </row>
-    <row r="459" spans="1:21" ht="18">
+    <row r="459" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -11625,7 +11606,7 @@
       <c r="T459" s="1"/>
       <c r="U459" s="1"/>
     </row>
-    <row r="460" spans="1:21" ht="18">
+    <row r="460" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -11648,7 +11629,7 @@
       <c r="T460" s="1"/>
       <c r="U460" s="1"/>
     </row>
-    <row r="461" spans="1:21" ht="18">
+    <row r="461" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -11671,7 +11652,7 @@
       <c r="T461" s="1"/>
       <c r="U461" s="1"/>
     </row>
-    <row r="462" spans="1:21" ht="18">
+    <row r="462" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -11694,7 +11675,7 @@
       <c r="T462" s="1"/>
       <c r="U462" s="1"/>
     </row>
-    <row r="463" spans="1:21" ht="18">
+    <row r="463" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -11717,7 +11698,7 @@
       <c r="T463" s="1"/>
       <c r="U463" s="1"/>
     </row>
-    <row r="464" spans="1:21" ht="18">
+    <row r="464" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -11740,7 +11721,7 @@
       <c r="T464" s="1"/>
       <c r="U464" s="1"/>
     </row>
-    <row r="465" spans="1:21" ht="18">
+    <row r="465" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -11763,7 +11744,7 @@
       <c r="T465" s="1"/>
       <c r="U465" s="1"/>
     </row>
-    <row r="466" spans="1:21" ht="18">
+    <row r="466" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -11786,7 +11767,7 @@
       <c r="T466" s="1"/>
       <c r="U466" s="1"/>
     </row>
-    <row r="467" spans="1:21" ht="18">
+    <row r="467" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -11809,7 +11790,7 @@
       <c r="T467" s="1"/>
       <c r="U467" s="1"/>
     </row>
-    <row r="468" spans="1:21" ht="18">
+    <row r="468" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -11832,7 +11813,7 @@
       <c r="T468" s="1"/>
       <c r="U468" s="1"/>
     </row>
-    <row r="469" spans="1:21" ht="18">
+    <row r="469" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -11855,7 +11836,7 @@
       <c r="T469" s="1"/>
       <c r="U469" s="1"/>
     </row>
-    <row r="470" spans="1:21" ht="18">
+    <row r="470" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -11878,7 +11859,7 @@
       <c r="T470" s="1"/>
       <c r="U470" s="1"/>
     </row>
-    <row r="471" spans="1:21" ht="18">
+    <row r="471" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -11901,7 +11882,7 @@
       <c r="T471" s="1"/>
       <c r="U471" s="1"/>
     </row>
-    <row r="472" spans="1:21" ht="18">
+    <row r="472" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -11924,7 +11905,7 @@
       <c r="T472" s="1"/>
       <c r="U472" s="1"/>
     </row>
-    <row r="473" spans="1:21" ht="18">
+    <row r="473" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -11947,7 +11928,7 @@
       <c r="T473" s="1"/>
       <c r="U473" s="1"/>
     </row>
-    <row r="474" spans="1:21" ht="18">
+    <row r="474" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -11970,7 +11951,7 @@
       <c r="T474" s="1"/>
       <c r="U474" s="1"/>
     </row>
-    <row r="475" spans="1:21" ht="18">
+    <row r="475" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -11993,7 +11974,7 @@
       <c r="T475" s="1"/>
       <c r="U475" s="1"/>
     </row>
-    <row r="476" spans="1:21" ht="18">
+    <row r="476" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -12016,7 +11997,7 @@
       <c r="T476" s="1"/>
       <c r="U476" s="1"/>
     </row>
-    <row r="477" spans="1:21" ht="18">
+    <row r="477" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -12039,7 +12020,7 @@
       <c r="T477" s="1"/>
       <c r="U477" s="1"/>
     </row>
-    <row r="478" spans="1:21" ht="18">
+    <row r="478" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -12062,7 +12043,7 @@
       <c r="T478" s="1"/>
       <c r="U478" s="1"/>
     </row>
-    <row r="479" spans="1:21" ht="18">
+    <row r="479" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -12085,7 +12066,7 @@
       <c r="T479" s="1"/>
       <c r="U479" s="1"/>
     </row>
-    <row r="480" spans="1:21" ht="18">
+    <row r="480" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -12108,7 +12089,7 @@
       <c r="T480" s="1"/>
       <c r="U480" s="1"/>
     </row>
-    <row r="481" spans="1:21" ht="18">
+    <row r="481" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -12131,7 +12112,7 @@
       <c r="T481" s="1"/>
       <c r="U481" s="1"/>
     </row>
-    <row r="482" spans="1:21" ht="18">
+    <row r="482" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -12154,7 +12135,7 @@
       <c r="T482" s="1"/>
       <c r="U482" s="1"/>
     </row>
-    <row r="483" spans="1:21" ht="18">
+    <row r="483" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -12177,7 +12158,7 @@
       <c r="T483" s="1"/>
       <c r="U483" s="1"/>
     </row>
-    <row r="484" spans="1:21" ht="18">
+    <row r="484" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -12200,7 +12181,7 @@
       <c r="T484" s="1"/>
       <c r="U484" s="1"/>
     </row>
-    <row r="485" spans="1:21" ht="18">
+    <row r="485" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -12223,7 +12204,7 @@
       <c r="T485" s="1"/>
       <c r="U485" s="1"/>
     </row>
-    <row r="486" spans="1:21" ht="18">
+    <row r="486" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -12246,7 +12227,7 @@
       <c r="T486" s="1"/>
       <c r="U486" s="1"/>
     </row>
-    <row r="487" spans="1:21" ht="18">
+    <row r="487" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -12269,7 +12250,7 @@
       <c r="T487" s="1"/>
       <c r="U487" s="1"/>
     </row>
-    <row r="488" spans="1:21" ht="18">
+    <row r="488" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -12292,7 +12273,7 @@
       <c r="T488" s="1"/>
       <c r="U488" s="1"/>
     </row>
-    <row r="489" spans="1:21" ht="18">
+    <row r="489" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -12315,7 +12296,7 @@
       <c r="T489" s="1"/>
       <c r="U489" s="1"/>
     </row>
-    <row r="490" spans="1:21" ht="18">
+    <row r="490" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -12338,7 +12319,7 @@
       <c r="T490" s="1"/>
       <c r="U490" s="1"/>
     </row>
-    <row r="491" spans="1:21" ht="18">
+    <row r="491" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -12361,7 +12342,7 @@
       <c r="T491" s="1"/>
       <c r="U491" s="1"/>
     </row>
-    <row r="492" spans="1:21" ht="18">
+    <row r="492" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -12384,7 +12365,7 @@
       <c r="T492" s="1"/>
       <c r="U492" s="1"/>
     </row>
-    <row r="493" spans="1:21" ht="18">
+    <row r="493" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -12407,7 +12388,7 @@
       <c r="T493" s="1"/>
       <c r="U493" s="1"/>
     </row>
-    <row r="494" spans="1:21" ht="18">
+    <row r="494" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -12430,7 +12411,7 @@
       <c r="T494" s="1"/>
       <c r="U494" s="1"/>
     </row>
-    <row r="495" spans="1:21" ht="18">
+    <row r="495" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -12453,7 +12434,7 @@
       <c r="T495" s="1"/>
       <c r="U495" s="1"/>
     </row>
-    <row r="496" spans="1:21" ht="18">
+    <row r="496" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -12476,7 +12457,7 @@
       <c r="T496" s="1"/>
       <c r="U496" s="1"/>
     </row>
-    <row r="497" spans="1:21" ht="18">
+    <row r="497" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -12499,7 +12480,7 @@
       <c r="T497" s="1"/>
       <c r="U497" s="1"/>
     </row>
-    <row r="498" spans="1:21" ht="18">
+    <row r="498" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -12522,7 +12503,7 @@
       <c r="T498" s="1"/>
       <c r="U498" s="1"/>
     </row>
-    <row r="499" spans="1:21" ht="18">
+    <row r="499" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -12545,7 +12526,7 @@
       <c r="T499" s="1"/>
       <c r="U499" s="1"/>
     </row>
-    <row r="500" spans="1:21" ht="18">
+    <row r="500" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -12568,7 +12549,7 @@
       <c r="T500" s="1"/>
       <c r="U500" s="1"/>
     </row>
-    <row r="501" spans="1:21" ht="18">
+    <row r="501" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -12591,7 +12572,7 @@
       <c r="T501" s="1"/>
       <c r="U501" s="1"/>
     </row>
-    <row r="502" spans="1:21" ht="18">
+    <row r="502" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -12614,7 +12595,7 @@
       <c r="T502" s="1"/>
       <c r="U502" s="1"/>
     </row>
-    <row r="503" spans="1:21" ht="18">
+    <row r="503" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -12637,7 +12618,7 @@
       <c r="T503" s="1"/>
       <c r="U503" s="1"/>
     </row>
-    <row r="504" spans="1:21" ht="18">
+    <row r="504" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -12660,7 +12641,7 @@
       <c r="T504" s="1"/>
       <c r="U504" s="1"/>
     </row>
-    <row r="505" spans="1:21" ht="18">
+    <row r="505" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -12683,7 +12664,7 @@
       <c r="T505" s="1"/>
       <c r="U505" s="1"/>
     </row>
-    <row r="506" spans="1:21" ht="18">
+    <row r="506" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -12706,7 +12687,7 @@
       <c r="T506" s="1"/>
       <c r="U506" s="1"/>
     </row>
-    <row r="507" spans="1:21" ht="18">
+    <row r="507" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -12729,7 +12710,7 @@
       <c r="T507" s="1"/>
       <c r="U507" s="1"/>
     </row>
-    <row r="508" spans="1:21" ht="18">
+    <row r="508" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -12752,7 +12733,7 @@
       <c r="T508" s="1"/>
       <c r="U508" s="1"/>
     </row>
-    <row r="509" spans="1:21" ht="18">
+    <row r="509" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -12775,7 +12756,7 @@
       <c r="T509" s="1"/>
       <c r="U509" s="1"/>
     </row>
-    <row r="510" spans="1:21" ht="18">
+    <row r="510" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -12798,7 +12779,7 @@
       <c r="T510" s="1"/>
       <c r="U510" s="1"/>
     </row>
-    <row r="511" spans="1:21" ht="18">
+    <row r="511" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -12821,7 +12802,7 @@
       <c r="T511" s="1"/>
       <c r="U511" s="1"/>
     </row>
-    <row r="512" spans="1:21" ht="18">
+    <row r="512" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -12844,7 +12825,7 @@
       <c r="T512" s="1"/>
       <c r="U512" s="1"/>
     </row>
-    <row r="513" spans="1:21" ht="18">
+    <row r="513" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -12867,7 +12848,7 @@
       <c r="T513" s="1"/>
       <c r="U513" s="1"/>
     </row>
-    <row r="514" spans="1:21" ht="18">
+    <row r="514" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -12890,7 +12871,7 @@
       <c r="T514" s="1"/>
       <c r="U514" s="1"/>
     </row>
-    <row r="515" spans="1:21" ht="18">
+    <row r="515" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -12913,7 +12894,7 @@
       <c r="T515" s="1"/>
       <c r="U515" s="1"/>
     </row>
-    <row r="516" spans="1:21" ht="18">
+    <row r="516" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -12936,7 +12917,7 @@
       <c r="T516" s="1"/>
       <c r="U516" s="1"/>
     </row>
-    <row r="517" spans="1:21" ht="18">
+    <row r="517" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -12959,7 +12940,7 @@
       <c r="T517" s="1"/>
       <c r="U517" s="1"/>
     </row>
-    <row r="518" spans="1:21" ht="18">
+    <row r="518" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -12982,7 +12963,7 @@
       <c r="T518" s="1"/>
       <c r="U518" s="1"/>
     </row>
-    <row r="519" spans="1:21" ht="18">
+    <row r="519" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -13005,7 +12986,7 @@
       <c r="T519" s="1"/>
       <c r="U519" s="1"/>
     </row>
-    <row r="520" spans="1:21" ht="18">
+    <row r="520" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -13028,7 +13009,7 @@
       <c r="T520" s="1"/>
       <c r="U520" s="1"/>
     </row>
-    <row r="521" spans="1:21" ht="18">
+    <row r="521" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -13051,7 +13032,7 @@
       <c r="T521" s="1"/>
       <c r="U521" s="1"/>
     </row>
-    <row r="522" spans="1:21" ht="18">
+    <row r="522" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -13074,7 +13055,7 @@
       <c r="T522" s="1"/>
       <c r="U522" s="1"/>
     </row>
-    <row r="523" spans="1:21" ht="18">
+    <row r="523" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -13097,7 +13078,7 @@
       <c r="T523" s="1"/>
       <c r="U523" s="1"/>
     </row>
-    <row r="524" spans="1:21" ht="18">
+    <row r="524" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -13120,7 +13101,7 @@
       <c r="T524" s="1"/>
       <c r="U524" s="1"/>
     </row>
-    <row r="525" spans="1:21" ht="18">
+    <row r="525" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -13143,7 +13124,7 @@
       <c r="T525" s="1"/>
       <c r="U525" s="1"/>
     </row>
-    <row r="526" spans="1:21" ht="18">
+    <row r="526" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -13166,7 +13147,7 @@
       <c r="T526" s="1"/>
       <c r="U526" s="1"/>
     </row>
-    <row r="527" spans="1:21" ht="18">
+    <row r="527" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -13189,7 +13170,7 @@
       <c r="T527" s="1"/>
       <c r="U527" s="1"/>
     </row>
-    <row r="528" spans="1:21" ht="18">
+    <row r="528" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -13212,7 +13193,7 @@
       <c r="T528" s="1"/>
       <c r="U528" s="1"/>
     </row>
-    <row r="529" spans="1:21" ht="18">
+    <row r="529" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -13235,7 +13216,7 @@
       <c r="T529" s="1"/>
       <c r="U529" s="1"/>
     </row>
-    <row r="530" spans="1:21" ht="18">
+    <row r="530" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -13258,7 +13239,7 @@
       <c r="T530" s="1"/>
       <c r="U530" s="1"/>
     </row>
-    <row r="531" spans="1:21" ht="18">
+    <row r="531" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -13281,7 +13262,7 @@
       <c r="T531" s="1"/>
       <c r="U531" s="1"/>
     </row>
-    <row r="532" spans="1:21" ht="18">
+    <row r="532" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -13304,7 +13285,7 @@
       <c r="T532" s="1"/>
       <c r="U532" s="1"/>
     </row>
-    <row r="533" spans="1:21" ht="18">
+    <row r="533" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -13327,7 +13308,7 @@
       <c r="T533" s="1"/>
       <c r="U533" s="1"/>
     </row>
-    <row r="534" spans="1:21" ht="18">
+    <row r="534" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -13350,7 +13331,7 @@
       <c r="T534" s="1"/>
       <c r="U534" s="1"/>
     </row>
-    <row r="535" spans="1:21" ht="18">
+    <row r="535" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -13373,7 +13354,7 @@
       <c r="T535" s="1"/>
       <c r="U535" s="1"/>
     </row>
-    <row r="536" spans="1:21" ht="18">
+    <row r="536" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -13396,7 +13377,7 @@
       <c r="T536" s="1"/>
       <c r="U536" s="1"/>
     </row>
-    <row r="537" spans="1:21" ht="18">
+    <row r="537" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -13419,7 +13400,7 @@
       <c r="T537" s="1"/>
       <c r="U537" s="1"/>
     </row>
-    <row r="538" spans="1:21" ht="18">
+    <row r="538" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -13442,7 +13423,7 @@
       <c r="T538" s="1"/>
       <c r="U538" s="1"/>
     </row>
-    <row r="539" spans="1:21" ht="18">
+    <row r="539" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -13465,7 +13446,7 @@
       <c r="T539" s="1"/>
       <c r="U539" s="1"/>
     </row>
-    <row r="540" spans="1:21" ht="18">
+    <row r="540" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -13488,7 +13469,7 @@
       <c r="T540" s="1"/>
       <c r="U540" s="1"/>
     </row>
-    <row r="541" spans="1:21" ht="18">
+    <row r="541" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -13511,7 +13492,7 @@
       <c r="T541" s="1"/>
       <c r="U541" s="1"/>
     </row>
-    <row r="542" spans="1:21" ht="18">
+    <row r="542" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -13534,7 +13515,7 @@
       <c r="T542" s="1"/>
       <c r="U542" s="1"/>
     </row>
-    <row r="543" spans="1:21" ht="18">
+    <row r="543" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -13557,7 +13538,7 @@
       <c r="T543" s="1"/>
       <c r="U543" s="1"/>
     </row>
-    <row r="544" spans="1:21" ht="18">
+    <row r="544" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -13580,7 +13561,7 @@
       <c r="T544" s="1"/>
       <c r="U544" s="1"/>
     </row>
-    <row r="545" spans="1:21" ht="18">
+    <row r="545" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -13603,7 +13584,7 @@
       <c r="T545" s="1"/>
       <c r="U545" s="1"/>
     </row>
-    <row r="546" spans="1:21" ht="18">
+    <row r="546" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -13626,7 +13607,7 @@
       <c r="T546" s="1"/>
       <c r="U546" s="1"/>
     </row>
-    <row r="547" spans="1:21" ht="18">
+    <row r="547" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -13649,7 +13630,7 @@
       <c r="T547" s="1"/>
       <c r="U547" s="1"/>
     </row>
-    <row r="548" spans="1:21" ht="18">
+    <row r="548" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -13672,7 +13653,7 @@
       <c r="T548" s="1"/>
       <c r="U548" s="1"/>
     </row>
-    <row r="549" spans="1:21" ht="18">
+    <row r="549" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -13695,7 +13676,7 @@
       <c r="T549" s="1"/>
       <c r="U549" s="1"/>
     </row>
-    <row r="550" spans="1:21" ht="18">
+    <row r="550" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -13718,7 +13699,7 @@
       <c r="T550" s="1"/>
       <c r="U550" s="1"/>
     </row>
-    <row r="551" spans="1:21" ht="18">
+    <row r="551" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -13741,7 +13722,7 @@
       <c r="T551" s="1"/>
       <c r="U551" s="1"/>
     </row>
-    <row r="552" spans="1:21" ht="18">
+    <row r="552" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -13764,7 +13745,7 @@
       <c r="T552" s="1"/>
       <c r="U552" s="1"/>
     </row>
-    <row r="553" spans="1:21" ht="18">
+    <row r="553" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -13789,6 +13770,84 @@
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:H6"/>
@@ -13813,84 +13872,6 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13909,15 +13890,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CDCEE4EE84D404B82284A61FE843539" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="37d7c8f0825fae7b7e39c192c8424bc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d581f8e8412fe39a3794ccf6300b7a27">
     <xsd:element name="properties">
@@ -14031,6 +14003,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4808A416-389E-443C-AAA1-850E9ED9711F}">
   <ds:schemaRefs>
@@ -14041,14 +14022,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95D3FEDD-0DA2-4533-91A1-D212DB74815B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0C659C-E68D-4745-AE71-90A08626223B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14062,4 +14035,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95D3FEDD-0DA2-4533-91A1-D212DB74815B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>